--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Ntn1-Unc5a.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Ntn1-Unc5a.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.32080608380505</v>
+        <v>2.082653666666667</v>
       </c>
       <c r="H2">
-        <v>1.32080608380505</v>
+        <v>6.247961</v>
       </c>
       <c r="I2">
-        <v>0.03060864535017371</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="J2">
-        <v>0.03060864535017371</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.44025675430253</v>
+        <v>5.067615666666667</v>
       </c>
       <c r="N2">
-        <v>2.44025675430253</v>
+        <v>15.202847</v>
       </c>
       <c r="O2">
-        <v>0.4537477282097693</v>
+        <v>0.6207828410514926</v>
       </c>
       <c r="P2">
-        <v>0.4537477282097693</v>
+        <v>0.6207828410514925</v>
       </c>
       <c r="Q2">
-        <v>3.223105967129146</v>
+        <v>10.55408834944078</v>
       </c>
       <c r="R2">
-        <v>3.223105967129146</v>
+        <v>94.986795144967</v>
       </c>
       <c r="S2">
-        <v>0.01388860329121984</v>
+        <v>0.02931274700184986</v>
       </c>
       <c r="T2">
-        <v>0.01388860329121984</v>
+        <v>0.02931274700184985</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.32080608380505</v>
+        <v>2.082653666666667</v>
       </c>
       <c r="H3">
-        <v>1.32080608380505</v>
+        <v>6.247961</v>
       </c>
       <c r="I3">
-        <v>0.03060864535017371</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="J3">
-        <v>0.03060864535017371</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.37203834344354</v>
+        <v>1.388310333333333</v>
       </c>
       <c r="N3">
-        <v>1.37203834344354</v>
+        <v>4.164931</v>
       </c>
       <c r="O3">
-        <v>0.2551204008580402</v>
+        <v>0.1700679944331107</v>
       </c>
       <c r="P3">
-        <v>0.2551204008580402</v>
+        <v>0.1700679944331107</v>
       </c>
       <c r="Q3">
-        <v>1.81219659123403</v>
+        <v>2.891369606187889</v>
       </c>
       <c r="R3">
-        <v>1.81219659123403</v>
+        <v>26.022326455691</v>
       </c>
       <c r="S3">
-        <v>0.007808889871457904</v>
+        <v>0.008030441185335978</v>
       </c>
       <c r="T3">
-        <v>0.007808889871457904</v>
+        <v>0.008030441185335977</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.32080608380505</v>
+        <v>2.082653666666667</v>
       </c>
       <c r="H4">
-        <v>1.32080608380505</v>
+        <v>6.247961</v>
       </c>
       <c r="I4">
-        <v>0.03060864535017371</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="J4">
-        <v>0.03060864535017371</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.56570814632613</v>
+        <v>1.707340333333333</v>
       </c>
       <c r="N4">
-        <v>1.56570814632613</v>
+        <v>5.122021</v>
       </c>
       <c r="O4">
-        <v>0.2911318709321906</v>
+        <v>0.2091491645153968</v>
       </c>
       <c r="P4">
-        <v>0.2911318709321906</v>
+        <v>0.2091491645153968</v>
       </c>
       <c r="Q4">
-        <v>2.06799684513068</v>
+        <v>3.555798605464556</v>
       </c>
       <c r="R4">
-        <v>2.06799684513068</v>
+        <v>32.002187449181</v>
       </c>
       <c r="S4">
-        <v>0.008911152187495969</v>
+        <v>0.009875815083264471</v>
       </c>
       <c r="T4">
-        <v>0.008911152187495969</v>
+        <v>0.009875815083264468</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.1306907057968</v>
+        <v>37.28222</v>
       </c>
       <c r="H5">
-        <v>37.1306907057968</v>
+        <v>111.84666</v>
       </c>
       <c r="I5">
-        <v>0.860474642989663</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="J5">
-        <v>0.860474642989663</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.44025675430253</v>
+        <v>5.067615666666667</v>
       </c>
       <c r="N5">
-        <v>2.44025675430253</v>
+        <v>15.202847</v>
       </c>
       <c r="O5">
-        <v>0.4537477282097693</v>
+        <v>0.6207828410514926</v>
       </c>
       <c r="P5">
-        <v>0.4537477282097693</v>
+        <v>0.6207828410514925</v>
       </c>
       <c r="Q5">
-        <v>90.60841878673882</v>
+        <v>188.9319621601133</v>
       </c>
       <c r="R5">
-        <v>90.60841878673882</v>
+        <v>1700.38765944102</v>
       </c>
       <c r="S5">
-        <v>0.3904384144386719</v>
+        <v>0.5247364456311299</v>
       </c>
       <c r="T5">
-        <v>0.3904384144386719</v>
+        <v>0.5247364456311299</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.1306907057968</v>
+        <v>37.28222</v>
       </c>
       <c r="H6">
-        <v>37.1306907057968</v>
+        <v>111.84666</v>
       </c>
       <c r="I6">
-        <v>0.860474642989663</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="J6">
-        <v>0.860474642989663</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.37203834344354</v>
+        <v>1.388310333333333</v>
       </c>
       <c r="N6">
-        <v>1.37203834344354</v>
+        <v>4.164931</v>
       </c>
       <c r="O6">
-        <v>0.2551204008580402</v>
+        <v>0.1700679944331107</v>
       </c>
       <c r="P6">
-        <v>0.2551204008580402</v>
+        <v>0.1700679944331107</v>
       </c>
       <c r="Q6">
-        <v>50.94473136689589</v>
+        <v>51.75929127560666</v>
       </c>
       <c r="R6">
-        <v>50.94473136689589</v>
+        <v>465.83362148046</v>
       </c>
       <c r="S6">
-        <v>0.2195246358477018</v>
+        <v>0.1437553827410686</v>
       </c>
       <c r="T6">
-        <v>0.2195246358477018</v>
+        <v>0.1437553827410686</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>37.1306907057968</v>
+        <v>37.28222</v>
       </c>
       <c r="H7">
-        <v>37.1306907057968</v>
+        <v>111.84666</v>
       </c>
       <c r="I7">
-        <v>0.860474642989663</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="J7">
-        <v>0.860474642989663</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.56570814632613</v>
+        <v>1.707340333333333</v>
       </c>
       <c r="N7">
-        <v>1.56570814632613</v>
+        <v>5.122021</v>
       </c>
       <c r="O7">
-        <v>0.2911318709321906</v>
+        <v>0.2091491645153968</v>
       </c>
       <c r="P7">
-        <v>0.2911318709321906</v>
+        <v>0.2091491645153968</v>
       </c>
       <c r="Q7">
-        <v>58.13582491678197</v>
+        <v>63.65343792220666</v>
       </c>
       <c r="R7">
-        <v>58.13582491678197</v>
+        <v>572.88094129986</v>
       </c>
       <c r="S7">
-        <v>0.2505115927032894</v>
+        <v>0.1767899850592462</v>
       </c>
       <c r="T7">
-        <v>0.2505115927032894</v>
+        <v>0.1767899850592461</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.69990924926599</v>
+        <v>4.741387</v>
       </c>
       <c r="H8">
-        <v>4.69990924926599</v>
+        <v>14.224161</v>
       </c>
       <c r="I8">
-        <v>0.1089167116601631</v>
+        <v>0.107499183298105</v>
       </c>
       <c r="J8">
-        <v>0.1089167116601631</v>
+        <v>0.107499183298105</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.44025675430253</v>
+        <v>5.067615666666667</v>
       </c>
       <c r="N8">
-        <v>2.44025675430253</v>
+        <v>15.202847</v>
       </c>
       <c r="O8">
-        <v>0.4537477282097693</v>
+        <v>0.6207828410514926</v>
       </c>
       <c r="P8">
-        <v>0.4537477282097693</v>
+        <v>0.6207828410514925</v>
       </c>
       <c r="Q8">
-        <v>11.46898529013026</v>
+        <v>24.02752704292967</v>
       </c>
       <c r="R8">
-        <v>11.46898529013026</v>
+        <v>216.247743386367</v>
       </c>
       <c r="S8">
-        <v>0.04942071047987751</v>
+        <v>0.06673364841851281</v>
       </c>
       <c r="T8">
-        <v>0.04942071047987751</v>
+        <v>0.06673364841851279</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.69990924926599</v>
+        <v>4.741387</v>
       </c>
       <c r="H9">
-        <v>4.69990924926599</v>
+        <v>14.224161</v>
       </c>
       <c r="I9">
-        <v>0.1089167116601631</v>
+        <v>0.107499183298105</v>
       </c>
       <c r="J9">
-        <v>0.1089167116601631</v>
+        <v>0.107499183298105</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.37203834344354</v>
+        <v>1.388310333333333</v>
       </c>
       <c r="N9">
-        <v>1.37203834344354</v>
+        <v>4.164931</v>
       </c>
       <c r="O9">
-        <v>0.2551204008580402</v>
+        <v>0.1700679944331107</v>
       </c>
       <c r="P9">
-        <v>0.2551204008580402</v>
+        <v>0.1700679944331107</v>
       </c>
       <c r="Q9">
-        <v>6.44845570069788</v>
+        <v>6.582516566432334</v>
       </c>
       <c r="R9">
-        <v>6.44845570069788</v>
+        <v>59.242649097891</v>
       </c>
       <c r="S9">
-        <v>0.02778687513888039</v>
+        <v>0.01828217050670608</v>
       </c>
       <c r="T9">
-        <v>0.02778687513888039</v>
+        <v>0.01828217050670607</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.69990924926599</v>
+        <v>4.741387</v>
       </c>
       <c r="H10">
-        <v>4.69990924926599</v>
+        <v>14.224161</v>
       </c>
       <c r="I10">
-        <v>0.1089167116601631</v>
+        <v>0.107499183298105</v>
       </c>
       <c r="J10">
-        <v>0.1089167116601631</v>
+        <v>0.107499183298105</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.56570814632613</v>
+        <v>1.707340333333333</v>
       </c>
       <c r="N10">
-        <v>1.56570814632613</v>
+        <v>5.122021</v>
       </c>
       <c r="O10">
-        <v>0.2911318709321906</v>
+        <v>0.2091491645153968</v>
       </c>
       <c r="P10">
-        <v>0.2911318709321906</v>
+        <v>0.2091491645153968</v>
       </c>
       <c r="Q10">
-        <v>7.358686198569286</v>
+        <v>8.095161261042335</v>
       </c>
       <c r="R10">
-        <v>7.358686198569286</v>
+        <v>72.856451349381</v>
       </c>
       <c r="S10">
-        <v>0.03170912604140522</v>
+        <v>0.02248336437288617</v>
       </c>
       <c r="T10">
-        <v>0.03170912604140522</v>
+        <v>0.02248336437288616</v>
       </c>
     </row>
   </sheetData>
